--- a/score.xlsx
+++ b/score.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -501,11 +501,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>138.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63.4</v>
       </c>
     </row>
   </sheetData>
